--- a/data/with_zero_original/stats_256_#40000_#1000_0f0p/ConfMatrices.xlsx
+++ b/data/with_zero_original/stats_256_#40000_#1000_0f0p/ConfMatrices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle\stack\AML project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle\stack\AML project\GITHUB\prime-factors\data\with_zero_original\stats_256_#40000_#1000_0f0p\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{398913CE-D0E4-46EF-969E-7EBA1BB2A5D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A37433-FAA6-40E4-AF39-4EC38767AA75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="13905" windowHeight="13860" firstSheet="3" activeTab="8" xr2:uid="{274A6B2B-C07C-4BF5-B33D-4A1372C19AE3}"/>
+    <workbookView xWindow="14895" yWindow="225" windowWidth="13905" windowHeight="5175" xr2:uid="{274A6B2B-C07C-4BF5-B33D-4A1372C19AE3}"/>
   </bookViews>
   <sheets>
     <sheet name="mod3" sheetId="1" r:id="rId1"/>
@@ -387,27 +387,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA92A3A-28DA-4C6E-8CFF-2532F932FA85}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>228</v>
       </c>
-      <c r="B1">
+      <c r="C2">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>218</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>263</v>
       </c>
     </row>
@@ -418,67 +435,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C94510-CF6F-445E-AFE6-5E2C2A486C4B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>141</v>
       </c>
-      <c r="C1">
+      <c r="D2">
         <v>140</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>131</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>123</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>124</v>
       </c>
-      <c r="C3">
+      <c r="D4">
         <v>108</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>114</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>119</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -489,131 +535,172 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7B13B4-CDC5-481B-B149-5466DD677379}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>84</v>
       </c>
-      <c r="D1">
+      <c r="E2">
         <v>71</v>
       </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>102</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>76</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D4">
         <v>90</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>84</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>79</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>70</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>95</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>57</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>105</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>67</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
@@ -624,15 +711,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1DAB34-F2EB-4BA3-AD93-164CB136B928}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -643,312 +730,377 @@
         <v>0</v>
       </c>
       <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="F2">
         <v>44</v>
       </c>
-      <c r="F1">
+      <c r="G2">
         <v>33</v>
       </c>
-      <c r="G1">
+      <c r="H2">
         <v>11</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>39</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>35</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>43</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>39</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>40</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>9</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>49</v>
       </c>
-      <c r="F5">
+      <c r="G6">
         <v>37</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>41</v>
       </c>
-      <c r="F6">
+      <c r="G7">
         <v>28</v>
       </c>
-      <c r="G6">
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>46</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>50</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>42</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>42</v>
       </c>
-      <c r="G8">
+      <c r="H9">
         <v>12</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>46</v>
       </c>
-      <c r="F9">
+      <c r="G10">
         <v>46</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>38</v>
       </c>
-      <c r="F10">
+      <c r="G11">
         <v>29</v>
       </c>
-      <c r="G10">
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
     </row>
@@ -962,7 +1114,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,7 +1662,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q17"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5209,7 +5361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC55236-2ABC-416A-A6D8-4FB45D3F0BD4}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
